--- a/Files/college_info/all_colleges/VASV/VASV_placements.xlsx
+++ b/Files/college_info/all_colleges/VASV/VASV_placements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad Arshad Ali\Dropbox\Programming\KMIT\Projects\group\python project on dataset (1st year 2nd sem)\files\VASV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad Arshad Ali\Dropbox\Programming\KMIT\Projects\group\python project on dataset (1st year 2nd sem)\files\all_colleges\VASV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1520218-3BF7-40F9-9E80-A996D1935519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D8F18-91E9-4149-B149-6BF2104D6684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>Sl.NO</t>
   </si>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>AXISCADES Engineering Technologies Ltd</t>
+  </si>
+  <si>
+    <t>F5 Networks Innovation Private Limited</t>
+  </si>
+  <si>
+    <t>Silicon Labs India Private Ltd.</t>
+  </si>
+  <si>
+    <t>Silicon Labs India Private Ltd. 2</t>
   </si>
 </sst>
 </file>
@@ -613,15 +622,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:G85"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
@@ -1718,6 +1727,39 @@
         <v>8</v>
       </c>
     </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A82">
     <sortCondition ref="A1:A82"/>

--- a/Files/college_info/all_colleges/VASV/VASV_placements.xlsx
+++ b/Files/college_info/all_colleges/VASV/VASV_placements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad Arshad Ali\Dropbox\Programming\KMIT\Projects\group\python project on dataset (1st year 2nd sem)\files\all_colleges\VASV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\VASV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D8F18-91E9-4149-B149-6BF2104D6684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A969A575-851E-4BA7-BF00-75A91668A747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Sl.NO</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>Silicon Labs India Private Ltd. 2</t>
+  </si>
+  <si>
+    <t>Infosys through - #HackwithInfy-2</t>
+  </si>
+  <si>
+    <t>Larsen &amp; Toubro Infotech Ltd.-2</t>
+  </si>
+  <si>
+    <t>Infosys through - #HackwithInfy-3</t>
+  </si>
+  <si>
+    <t>Larsen &amp; Toubro Infotech Ltd.-3</t>
   </si>
 </sst>
 </file>
@@ -324,7 +336,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -624,13 +647,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
@@ -1298,7 +1321,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C48">
         <v>6.5</v>
@@ -1438,7 +1461,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1452,7 +1475,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1606,7 +1629,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C70">
         <v>4.46</v>
@@ -1764,6 +1787,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A82">
     <sortCondition ref="A1:A82"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>